--- a/trials_results.xlsx
+++ b/trials_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.711209644464713</v>
+        <v>5.523120213222589</v>
       </c>
       <c r="E2" t="n">
         <v>1.476039886474609</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.936262529298907</v>
+        <v>2.473827857682548</v>
       </c>
       <c r="E3" t="n">
         <v>0.2149696350097656</v>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.596088339569666</v>
+        <v>2.659469451860341</v>
       </c>
       <c r="E4" t="n">
         <v>0.7555503845214844</v>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5.208570352952531</v>
+        <v>5.156670692196279</v>
       </c>
       <c r="E5" t="n">
         <v>0.9544181823730469</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.254084029899007</v>
+        <v>3.463969459808676</v>
       </c>
       <c r="E6" t="n">
         <v>0.6842269897460938</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.728017919956822</v>
+        <v>2.320506293158824</v>
       </c>
       <c r="E7" t="n">
         <v>4.289417266845703</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.705492259530607</v>
+        <v>1.954858229641819</v>
       </c>
       <c r="E8" t="n">
         <v>4.589248657226562</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2.087249310232874</v>
+        <v>2.387963201403324</v>
       </c>
       <c r="E9" t="n">
         <v>0.85205078125</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1.535851587061864</v>
+        <v>1.811471451227059</v>
       </c>
       <c r="E10" t="n">
         <v>1.097587585449219</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2.119164636564765</v>
+        <v>2.360623378741721</v>
       </c>
       <c r="E11" t="n">
         <v>11.35523223876953</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>3.995325244220624</v>
+        <v>4.482941459552542</v>
       </c>
       <c r="E12" t="n">
         <v>4.918239593505859</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>5.895866449075825</v>
+        <v>5.655535233175875</v>
       </c>
       <c r="E13" t="n">
         <v>1.531734466552734</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.683138872038102</v>
+        <v>2.028427865375465</v>
       </c>
       <c r="E14" t="n">
         <v>0.5513229370117188</v>
@@ -852,19 +852,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2.749486342167922</v>
+        <v>3.070667767857651</v>
       </c>
       <c r="E15" t="n">
         <v>1.045749664306641</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>4.922792180641702</v>
+        <v>4.774796367583496</v>
       </c>
       <c r="E16" t="n">
         <v>0.8341445922851562</v>
@@ -908,19 +908,19 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2.666229674135137</v>
+        <v>3.035481197222809</v>
       </c>
       <c r="E17" t="n">
         <v>0.6329383850097656</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.851033938617759</v>
+        <v>2.418362628108746</v>
       </c>
       <c r="E18" t="n">
         <v>3.542930603027344</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.715758831638221</v>
+        <v>1.974208821940114</v>
       </c>
       <c r="E19" t="n">
         <v>4.754550933837891</v>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2.104421497991187</v>
+        <v>2.333038307242649</v>
       </c>
       <c r="E20" t="n">
         <v>0.720855712890625</v>
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.976133787809463</v>
+        <v>2.402134603333448</v>
       </c>
       <c r="E21" t="n">
         <v>1.046279907226562</v>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2.115973336717948</v>
+        <v>2.356004849429988</v>
       </c>
       <c r="E22" t="n">
         <v>11.55761337280273</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>3.065148161609674</v>
+        <v>3.912237085774511</v>
       </c>
       <c r="E23" t="n">
         <v>3.955963134765625</v>
@@ -1088,6 +1088,1322 @@
         <v>1</v>
       </c>
       <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.972647949829572</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.773773193359375</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.021156907328099</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7830810546875</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.714283194659104</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4283676147460938</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.956963073316183</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8366546630859375</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>s12</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.226458826723503</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7050247192382812</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>s13</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.369146234349337</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.168689727783203</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.898810630811523</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.012882232666016</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>s19</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.405802137499643</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2852706909179688</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>s20</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.699308396055918</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2957763671875</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>s21</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.264714975504471</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.52366638183594</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>s22</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.586614845136182</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.175220489501953</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>s0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.419424184082521</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3112602233886719</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.810991605110528</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8185348510742188</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.466387376135156</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.04632186889648438</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.584447558318283</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01009750366210938</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.836292605948258</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.06203842163085938</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>s12</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.286757336215885</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3588142395019531</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>s13</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.45784369103225</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.392498016357422</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.3324829107989</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.814525604248047</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>s19</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.19312661477463</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.04259490966796875</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>s20</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.700063880062508</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1250686645507812</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>s21</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.383080907366531</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12.16833877563477</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>s22</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.001050006840278</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.743801116943359</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>s0</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.42389382424241</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1563873291015625</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.007144321693057</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8533439636230469</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.482216349993565</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1915855407714844</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.578659789998675</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2072410583496094</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.188544757718019</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2197074890136719</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>s12</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.39787626626392</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2351760864257812</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>s13</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.522519282117348</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.531948089599609</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.035565404017025</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.945846557617188</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>s19</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.655969630392916</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2494773864746094</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>s20</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.664301474079187</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3675918579101562</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>s21</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.376255232364924</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12.33989334106445</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>s22</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.065183279976268</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.444976806640625</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>s0</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.564744485115444</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6542167663574219</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.947438347034542</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.258235931396484</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.536616505423801</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1125335693359375</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.724076112081258</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.129547119140625</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.747655530057304</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.136322021484375</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>s12</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.198317447632765</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.325927734375</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>s13</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.471744647643355</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.189464569091797</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.087626764414295</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.413002014160156</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>s19</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.497283774338832</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4208297729492188</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>s20</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.524686599011528</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.03741455078125</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>s21</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.365805520173398</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.06186676025391</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>s22</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.088582871946763</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.233753204345703</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
     </row>

--- a/trials_results.xlsx
+++ b/trials_results.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.523120213222589</v>
+        <v>5.711209644464713</v>
       </c>
       <c r="E2" t="n">
         <v>1.476039886474609</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.473827857682548</v>
+        <v>1.936262529298907</v>
       </c>
       <c r="E3" t="n">
         <v>0.2149696350097656</v>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.659469451860341</v>
+        <v>2.596088339569666</v>
       </c>
       <c r="E4" t="n">
         <v>0.7555503845214844</v>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5.156670692196279</v>
+        <v>5.208570352952531</v>
       </c>
       <c r="E5" t="n">
         <v>0.9544181823730469</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.463969459808676</v>
+        <v>3.254084029899007</v>
       </c>
       <c r="E6" t="n">
         <v>0.6842269897460938</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.320506293158824</v>
+        <v>1.728017919956822</v>
       </c>
       <c r="E7" t="n">
         <v>4.289417266845703</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.954858229641819</v>
+        <v>1.705492259530607</v>
       </c>
       <c r="E8" t="n">
         <v>4.589248657226562</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2.387963201403324</v>
+        <v>2.087249310232874</v>
       </c>
       <c r="E9" t="n">
         <v>0.85205078125</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1.811471451227059</v>
+        <v>1.535851587061864</v>
       </c>
       <c r="E10" t="n">
         <v>1.097587585449219</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2.360623378741721</v>
+        <v>2.119164636564765</v>
       </c>
       <c r="E11" t="n">
         <v>11.35523223876953</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4.482941459552542</v>
+        <v>3.995325244220624</v>
       </c>
       <c r="E12" t="n">
         <v>4.918239593505859</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>5.655535233175875</v>
+        <v>5.895866449075825</v>
       </c>
       <c r="E13" t="n">
         <v>1.531734466552734</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>2.028427865375465</v>
+        <v>1.683138872038102</v>
       </c>
       <c r="E14" t="n">
         <v>0.5513229370117188</v>
@@ -852,19 +852,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>3.070667767857651</v>
+        <v>2.749486342167922</v>
       </c>
       <c r="E15" t="n">
         <v>1.045749664306641</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>4.774796367583496</v>
+        <v>4.922792180641702</v>
       </c>
       <c r="E16" t="n">
         <v>0.8341445922851562</v>
@@ -908,19 +908,19 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>3.035481197222809</v>
+        <v>2.666229674135137</v>
       </c>
       <c r="E17" t="n">
         <v>0.6329383850097656</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2.418362628108746</v>
+        <v>1.851033938617759</v>
       </c>
       <c r="E18" t="n">
         <v>3.542930603027344</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.974208821940114</v>
+        <v>1.715758831638221</v>
       </c>
       <c r="E19" t="n">
         <v>4.754550933837891</v>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2.333038307242649</v>
+        <v>2.104421497991187</v>
       </c>
       <c r="E20" t="n">
         <v>0.720855712890625</v>
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2.402134603333448</v>
+        <v>1.976133787809463</v>
       </c>
       <c r="E21" t="n">
         <v>1.046279907226562</v>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2.356004849429988</v>
+        <v>2.115973336717948</v>
       </c>
       <c r="E22" t="n">
         <v>11.55761337280273</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>3.912237085774511</v>
+        <v>3.065148161609674</v>
       </c>
       <c r="E23" t="n">
         <v>3.955963134765625</v>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5.972647949829572</v>
+        <v>5.584581985329348</v>
       </c>
       <c r="E24" t="n">
         <v>1.773773193359375</v>
@@ -1132,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>2.021156907328099</v>
+        <v>1.575958623743046</v>
       </c>
       <c r="E25" t="n">
         <v>0.7830810546875</v>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>2.714283194659104</v>
+        <v>2.662726914497945</v>
       </c>
       <c r="E26" t="n">
         <v>0.4283676147460938</v>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>4.956963073316183</v>
+        <v>4.982116575958195</v>
       </c>
       <c r="E27" t="n">
         <v>0.8366546630859375</v>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>3.226458826723503</v>
+        <v>3.128335108037096</v>
       </c>
       <c r="E28" t="n">
         <v>0.7050247192382812</v>
@@ -1244,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>2.369146234349337</v>
+        <v>1.803638849285963</v>
       </c>
       <c r="E29" t="n">
         <v>4.168689727783203</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1.898810630811523</v>
+        <v>1.68118567460489</v>
       </c>
       <c r="E30" t="n">
         <v>5.012882232666016</v>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>2.405802137499643</v>
+        <v>2.18701924227936</v>
       </c>
       <c r="E31" t="n">
         <v>0.2852706909179688</v>
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>1.699308396055918</v>
+        <v>1.57141128411077</v>
       </c>
       <c r="E32" t="n">
         <v>0.2957763671875</v>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>2.264714975504471</v>
+        <v>2.026129944248873</v>
       </c>
       <c r="E33" t="n">
         <v>11.52366638183594</v>
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>4.586614845136182</v>
+        <v>4.183338359358447</v>
       </c>
       <c r="E34" t="n">
         <v>4.175220489501953</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1.419424184082521</v>
+        <v>1.410426740605414</v>
       </c>
       <c r="E35" t="n">
         <v>0.3112602233886719</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>5.810991605110528</v>
+        <v>6.024910406933765</v>
       </c>
       <c r="E36" t="n">
         <v>0.8185348510742188</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1.466387376135156</v>
+        <v>1.441211656160386</v>
       </c>
       <c r="E37" t="n">
         <v>0.04632186889648438</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2.584447558318283</v>
+        <v>2.497789027624896</v>
       </c>
       <c r="E38" t="n">
         <v>0.01009750366210938</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4.836292605948258</v>
+        <v>5.002722634014444</v>
       </c>
       <c r="E39" t="n">
         <v>0.06203842163085938</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>3.286757336215885</v>
+        <v>3.097289646503099</v>
       </c>
       <c r="E40" t="n">
         <v>0.3588142395019531</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>2.45784369103225</v>
+        <v>1.77190133917482</v>
       </c>
       <c r="E41" t="n">
         <v>3.392498016357422</v>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2.3324829107989</v>
+        <v>1.959727964013448</v>
       </c>
       <c r="E42" t="n">
         <v>5.814525604248047</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>2.19312661477463</v>
+        <v>1.960601412310885</v>
       </c>
       <c r="E43" t="n">
         <v>0.04259490966796875</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1.700063880062508</v>
+        <v>1.600437731050705</v>
       </c>
       <c r="E44" t="n">
         <v>0.1250686645507812</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2.383080907366531</v>
+        <v>2.100590693906766</v>
       </c>
       <c r="E45" t="n">
         <v>12.16833877563477</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4.001050006840278</v>
+        <v>2.973151199667176</v>
       </c>
       <c r="E46" t="n">
         <v>4.743801116943359</v>
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>1.42389382424241</v>
+        <v>1.318914195641992</v>
       </c>
       <c r="E47" t="n">
         <v>0.1563873291015625</v>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>6.007144321693057</v>
+        <v>6.004926811532771</v>
       </c>
       <c r="E48" t="n">
         <v>0.8533439636230469</v>
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>1.482216349993565</v>
+        <v>1.395997893431079</v>
       </c>
       <c r="E49" t="n">
         <v>0.1915855407714844</v>
@@ -1832,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>2.578659789998675</v>
+        <v>2.524824591921007</v>
       </c>
       <c r="E50" t="n">
         <v>0.2072410583496094</v>
@@ -1860,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5.188544757718019</v>
+        <v>5.277459929586872</v>
       </c>
       <c r="E51" t="n">
         <v>0.2197074890136719</v>
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>3.39787626626392</v>
+        <v>3.254106463318764</v>
       </c>
       <c r="E52" t="n">
         <v>0.2351760864257812</v>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>2.522519282117348</v>
+        <v>1.804372951492224</v>
       </c>
       <c r="E53" t="n">
         <v>3.531948089599609</v>
@@ -1944,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>2.035565404017025</v>
+        <v>1.832328688648591</v>
       </c>
       <c r="E54" t="n">
         <v>5.945846557617188</v>
@@ -1972,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>2.655969630392916</v>
+        <v>2.359457251252086</v>
       </c>
       <c r="E55" t="n">
         <v>0.2494773864746094</v>
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>1.664301474079187</v>
+        <v>1.600733133308507</v>
       </c>
       <c r="E56" t="n">
         <v>0.3675918579101562</v>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>2.376255232364924</v>
+        <v>2.105572096048736</v>
       </c>
       <c r="E57" t="n">
         <v>12.33989334106445</v>
@@ -2056,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>4.065183279976268</v>
+        <v>3.042663381626426</v>
       </c>
       <c r="E58" t="n">
         <v>4.444976806640625</v>
@@ -2084,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>1.564744485115444</v>
+        <v>1.361534663648583</v>
       </c>
       <c r="E59" t="n">
         <v>0.6542167663574219</v>
@@ -2112,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>5.947438347034542</v>
+        <v>6.218691763096885</v>
       </c>
       <c r="E60" t="n">
         <v>1.258235931396484</v>
@@ -2140,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>1.536616505423801</v>
+        <v>1.455982923271956</v>
       </c>
       <c r="E61" t="n">
         <v>0.1125335693359375</v>
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2.724076112081258</v>
+        <v>2.645780480284898</v>
       </c>
       <c r="E62" t="n">
         <v>0.129547119140625</v>
@@ -2196,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>4.747655530057304</v>
+        <v>4.915816828709418</v>
       </c>
       <c r="E63" t="n">
         <v>0.136322021484375</v>
@@ -2224,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>3.198317447632765</v>
+        <v>3.033601707038478</v>
       </c>
       <c r="E64" t="n">
         <v>0.325927734375</v>
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>2.471744647643355</v>
+        <v>1.759468512494721</v>
       </c>
       <c r="E65" t="n">
         <v>4.189464569091797</v>
@@ -2280,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>2.087626764414295</v>
+        <v>1.879125253531666</v>
       </c>
       <c r="E66" t="n">
         <v>5.413002014160156</v>
@@ -2308,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>2.497283774338832</v>
+        <v>2.189009211448246</v>
       </c>
       <c r="E67" t="n">
         <v>0.4208297729492188</v>
@@ -2336,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>1.524686599011528</v>
+        <v>1.509189447762382</v>
       </c>
       <c r="E68" t="n">
         <v>0.03741455078125</v>
@@ -2364,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>2.365805520173398</v>
+        <v>2.106798893494341</v>
       </c>
       <c r="E69" t="n">
         <v>12.06186676025391</v>
@@ -2392,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>4.088582871946763</v>
+        <v>3.073255375649676</v>
       </c>
       <c r="E70" t="n">
         <v>4.233753204345703</v>
